--- a/mControl_produccion/formatos/CAJA 11.xlsx
+++ b/mControl_produccion/formatos/CAJA 11.xlsx
@@ -19,37 +19,37 @@
     <t>Afiliación</t>
   </si>
   <si>
-    <t>7543520</t>
+    <t>7946220</t>
   </si>
   <si>
     <t>Fecha de Transacción</t>
   </si>
   <si>
-    <t>03/08/2020</t>
+    <t>08/03/2021</t>
   </si>
   <si>
     <t>Hora de Transacción</t>
   </si>
   <si>
-    <t>12:18:50</t>
+    <t>18:00:29</t>
   </si>
   <si>
     <t>Número de Control</t>
   </si>
   <si>
-    <t>202008036501218398439</t>
+    <t>202103082129180119739</t>
   </si>
   <si>
     <t>Código de Autorización</t>
   </si>
   <si>
-    <t>222198</t>
+    <t>002942</t>
   </si>
   <si>
     <t>Número de Tarjeta</t>
   </si>
   <si>
-    <t>506221******8439</t>
+    <t>545307******9739</t>
   </si>
   <si>
     <t>Tipo de Transacción</t>
@@ -67,13 +67,13 @@
     <t>Monto</t>
   </si>
   <si>
-    <t>1250</t>
+    <t>191.35</t>
   </si>
   <si>
     <t>Referencia</t>
   </si>
   <si>
-    <t>996280560513</t>
+    <t>553945170390</t>
   </si>
   <si>
     <t>Referencia 1</t>
@@ -136,19 +136,19 @@
     <t>Banco Emisor</t>
   </si>
   <si>
-    <t xml:space="preserve">AUTORIZA  </t>
+    <t xml:space="preserve">SANTANDER </t>
   </si>
   <si>
     <t>Marca de Tarjeta</t>
   </si>
   <si>
-    <t xml:space="preserve">CARNET    </t>
+    <t>MASTERCARD</t>
   </si>
   <si>
     <t>Tipo de Tarjeta</t>
   </si>
   <si>
-    <t xml:space="preserve">DEBITO    </t>
+    <t xml:space="preserve">CREDITO   </t>
   </si>
 </sst>
 </file>
@@ -486,8 +486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:AB7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:AB7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
